--- a/biology/Médecine/Chen_Cheng_(dynastie_Song_du_Nord)/Chen_Cheng_(dynastie_Song_du_Nord).xlsx
+++ b/biology/Médecine/Chen_Cheng_(dynastie_Song_du_Nord)/Chen_Cheng_(dynastie_Song_du_Nord).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Chen Cheng 陈承 est un expert en pharmaceutique de la dynastie des Song du Nord (960-1127) qui compila une pharmacopée aujourd'hui perdue, la Bencao bie shuo 本草别说. 
 </t>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Chen Cheng est originaire de Langzhong 阆中, de nos jours dans le Sichuan 四川[1]. Son arrière-grand-père était Chen Yaozuo 陈尧佐, est un célèbre ministre du début des Song[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chen Cheng est originaire de Langzhong 阆中, de nos jours dans le Sichuan 四川. Son arrière-grand-père était Chen Yaozuo 陈尧佐, est un célèbre ministre du début des Song.
 Après la mort de son père, il alla avec sa mère à Yu hang dans le Zhejiang 浙江.
 Il participa à la compilation d’un ouvrage de prescriptions médicales Hé jì jú fāng 和剂局方 « Prescriptions du bureau Heji ».
 En 1092, il compila Zhòng guǎng bǔ zhù shénnóng běncǎo bìng tú jīng 重广补注神农本草并图经 « La Shennong bencao et le classique illustré plusieurs fois étendus, supplémentés et annotés » dont le titre abrégé est Bencao bie shuo 本草别说. Cette pharmacopée est aujourd’hui perdue. Des extraits du texte demeure dans des citations d'autres pharmacopées comme la Bencao gangmu (1593) de Li Shizhen.
